--- a/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D179077-ECFA-4DBE-AECC-7F98B7509105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E32A36-4546-4463-89F0-FB4F91058D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DEC213BC-DFD9-4CED-B31E-8C6FE58E762F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E85E763D-50FA-4C58-AB4B-4CD0EC92DA08}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89612A52-1214-4437-97BD-C38B1962F3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D097F1D-3E93-4A64-8D61-C3BF98232643}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3E32A36-4546-4463-89F0-FB4F91058D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBD6D66-C8D1-42C0-B788-969A92A34913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E85E763D-50FA-4C58-AB4B-4CD0EC92DA08}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26489DD0-B2D8-419B-97AA-A5D4849E73F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
   </si>
   <si>
     <t>92,31%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>91,69%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
+    <t>89,9%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
   </si>
   <si>
     <t>9,2%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>10,1%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,103 +188,97 @@
     <t>90,95%</t>
   </si>
   <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
+    <t>88,27%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
+    <t>11,73%</t>
   </si>
   <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>90,07%</t>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>9,93%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D097F1D-3E93-4A64-8D61-C3BF98232643}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC586037-9E42-4637-A34D-E47B205AC8F4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,7 +1008,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1035,13 +1023,13 @@
         <v>170029</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>304</v>
@@ -1050,13 +1038,13 @@
         <v>197273</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>490</v>
@@ -1065,13 +1053,13 @@
         <v>367303</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1127,7 +1115,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1139,13 +1127,13 @@
         <v>596357</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>850</v>
@@ -1154,13 +1142,13 @@
         <v>622025</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1438</v>
@@ -1169,13 +1157,13 @@
         <v>1218382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1190,13 +1178,13 @@
         <v>59324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -1205,13 +1193,13 @@
         <v>78492</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -1220,13 +1208,13 @@
         <v>137816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1294,13 +1282,13 @@
         <v>2895913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>4442</v>
@@ -1309,28 +1297,28 @@
         <v>3217533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>7267</v>
       </c>
       <c r="N13" s="7">
-        <v>6113445</v>
+        <v>6113446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1345,13 +1333,13 @@
         <v>267218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -1360,13 +1348,13 @@
         <v>329719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1375,13 +1363,13 @@
         <v>596937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1423,7 +1411,7 @@
         <v>8110</v>
       </c>
       <c r="N15" s="7">
-        <v>6710382</v>
+        <v>6710383</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1425,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBD6D66-C8D1-42C0-B788-969A92A34913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73801997-40CB-4C96-B63D-24E8022F7D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26489DD0-B2D8-419B-97AA-A5D4849E73F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{295EC3F0-DB3C-401B-9FBC-1BD53B69A4ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Población según si diría que estar con dolor o malestar en el pecho es un síntoma de que a alguien le está dando un ataque al corazón en 2023 (Tasa respuesta: 92,99%)</t>
   </si>
@@ -74,211 +74,223 @@
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,31%</t>
   </si>
   <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>92,11%</t>
   </si>
   <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -693,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC586037-9E42-4637-A34D-E47B205AC8F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F4E9A-27FC-4956-84AC-80F76D6E4B79}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1008,7 +1020,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1023,13 +1035,13 @@
         <v>170029</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>304</v>
@@ -1038,13 +1050,13 @@
         <v>197273</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>490</v>
@@ -1053,13 +1065,13 @@
         <v>367303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1115,7 +1127,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1127,13 +1139,13 @@
         <v>596357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>850</v>
@@ -1142,13 +1154,13 @@
         <v>622025</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>1438</v>
@@ -1157,13 +1169,13 @@
         <v>1218382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1178,13 +1190,13 @@
         <v>59324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>134</v>
@@ -1193,13 +1205,13 @@
         <v>78492</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>209</v>
@@ -1208,13 +1220,13 @@
         <v>137816</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1282,13 +1294,13 @@
         <v>2895913</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>4442</v>
@@ -1297,28 +1309,28 @@
         <v>3217533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>7267</v>
       </c>
       <c r="N13" s="7">
-        <v>6113446</v>
+        <v>6113445</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1345,13 @@
         <v>267218</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
@@ -1348,13 +1360,13 @@
         <v>329719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1363,13 +1375,13 @@
         <v>596937</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,7 +1423,7 @@
         <v>8110</v>
       </c>
       <c r="N15" s="7">
-        <v>6710383</v>
+        <v>6710382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1425,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39A3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73801997-40CB-4C96-B63D-24E8022F7D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2B4E8B6-FA65-4EEC-A9C8-66ECDDAA7A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{295EC3F0-DB3C-401B-9FBC-1BD53B69A4ED}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A0E3DEEA-032E-46A0-B965-ACB80B357A77}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>93,89%</t>
   </si>
   <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>8,2%</t>
+    <t>8,17%</t>
   </si>
   <si>
     <t>6,11%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,163 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
   </si>
   <si>
     <t>9,3%</t>
   </si>
   <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -705,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F4E9A-27FC-4956-84AC-80F76D6E4B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4FFE0C-1E42-4FC6-8535-C6CDD8B9C3F7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -826,7 +826,7 @@
         <v>525</v>
       </c>
       <c r="D4" s="7">
-        <v>424003</v>
+        <v>405300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +841,7 @@
         <v>1087</v>
       </c>
       <c r="I4" s="7">
-        <v>647413</v>
+        <v>585001</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +856,7 @@
         <v>1612</v>
       </c>
       <c r="N4" s="7">
-        <v>1071417</v>
+        <v>990300</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -877,7 +877,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="7">
-        <v>37866</v>
+        <v>36038</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -892,7 +892,7 @@
         <v>94</v>
       </c>
       <c r="I5" s="7">
-        <v>53953</v>
+        <v>49388</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +907,7 @@
         <v>144</v>
       </c>
       <c r="N5" s="7">
-        <v>91819</v>
+        <v>85427</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -928,7 +928,7 @@
         <v>575</v>
       </c>
       <c r="D6" s="7">
-        <v>461869</v>
+        <v>441338</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -943,7 +943,7 @@
         <v>1181</v>
       </c>
       <c r="I6" s="7">
-        <v>701366</v>
+        <v>634389</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +958,7 @@
         <v>1756</v>
       </c>
       <c r="N6" s="7">
-        <v>1163236</v>
+        <v>1075727</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -981,7 +981,7 @@
         <v>1712</v>
       </c>
       <c r="D7" s="7">
-        <v>1875551</v>
+        <v>2013853</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -996,7 +996,7 @@
         <v>2505</v>
       </c>
       <c r="I7" s="7">
-        <v>1948096</v>
+        <v>1882394</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1011,7 @@
         <v>4217</v>
       </c>
       <c r="N7" s="7">
-        <v>3823646</v>
+        <v>3896247</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1032,7 +1032,7 @@
         <v>186</v>
       </c>
       <c r="D8" s="7">
-        <v>170029</v>
+        <v>167343</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1047,7 +1047,7 @@
         <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>197273</v>
+        <v>238148</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1062,7 @@
         <v>490</v>
       </c>
       <c r="N8" s="7">
-        <v>367303</v>
+        <v>405491</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1083,7 +1083,7 @@
         <v>1898</v>
       </c>
       <c r="D9" s="7">
-        <v>2045580</v>
+        <v>2181196</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1098,7 +1098,7 @@
         <v>2809</v>
       </c>
       <c r="I9" s="7">
-        <v>2145369</v>
+        <v>2120542</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>4707</v>
       </c>
       <c r="N9" s="7">
-        <v>4190949</v>
+        <v>4301738</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1136,7 +1136,7 @@
         <v>588</v>
       </c>
       <c r="D10" s="7">
-        <v>596357</v>
+        <v>574956</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1151,7 +1151,7 @@
         <v>850</v>
       </c>
       <c r="I10" s="7">
-        <v>622025</v>
+        <v>575577</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,7 +1166,7 @@
         <v>1438</v>
       </c>
       <c r="N10" s="7">
-        <v>1218382</v>
+        <v>1150533</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1187,7 +1187,7 @@
         <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>59324</v>
+        <v>55572</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1202,7 +1202,7 @@
         <v>134</v>
       </c>
       <c r="I11" s="7">
-        <v>78492</v>
+        <v>72424</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1217,7 +1217,7 @@
         <v>209</v>
       </c>
       <c r="N11" s="7">
-        <v>137816</v>
+        <v>127996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1238,7 +1238,7 @@
         <v>663</v>
       </c>
       <c r="D12" s="7">
-        <v>655681</v>
+        <v>630528</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1253,7 +1253,7 @@
         <v>984</v>
       </c>
       <c r="I12" s="7">
-        <v>700517</v>
+        <v>648001</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1268,7 @@
         <v>1647</v>
       </c>
       <c r="N12" s="7">
-        <v>1356198</v>
+        <v>1278529</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1291,7 +1291,7 @@
         <v>2825</v>
       </c>
       <c r="D13" s="7">
-        <v>2895913</v>
+        <v>2994107</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1300,37 +1300,37 @@
         <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>4442</v>
       </c>
       <c r="I13" s="7">
-        <v>3217533</v>
+        <v>3042973</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>7267</v>
       </c>
       <c r="N13" s="7">
-        <v>6113445</v>
+        <v>6037080</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1342,43 +1342,43 @@
         <v>311</v>
       </c>
       <c r="D14" s="7">
-        <v>267218</v>
+        <v>258954</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>532</v>
       </c>
       <c r="I14" s="7">
-        <v>329719</v>
+        <v>359960</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
       </c>
       <c r="N14" s="7">
-        <v>596937</v>
+        <v>618914</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>84</v>
@@ -1393,7 +1393,7 @@
         <v>3136</v>
       </c>
       <c r="D15" s="7">
-        <v>3163131</v>
+        <v>3253061</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1408,7 +1408,7 @@
         <v>4974</v>
       </c>
       <c r="I15" s="7">
-        <v>3547252</v>
+        <v>3402933</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1423,7 @@
         <v>8110</v>
       </c>
       <c r="N15" s="7">
-        <v>6710382</v>
+        <v>6655994</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
